--- a/MetroLondres/output/xlsx/Consulta de Trajetos--GT-.xlsx
+++ b/MetroLondres/output/xlsx/Consulta de Trajetos--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Coverage)</t>
   </si>
   <si>
-    <t>Size: 1 test case(s))</t>
+    <t>Size: 2 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -101,6 +101,9 @@
     <t>Usuário do sistema Usuário informa estação de origem</t>
   </si>
   <si>
+    <t>SYSTEM Imprime novamente, uma messagem solicitando que o usuário informe a estação</t>
+  </si>
+  <si>
     <t>SYSTEM Espera usuário informar estação de destino</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>Imprime trajetos. other condition</t>
+  </si>
+  <si>
+    <t>TC2</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -522,13 +528,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -542,13 +548,13 @@
         <v>4.0</v>
       </c>
       <c r="B13" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s" s="7">
         <v>32</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>33</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>2</v>
@@ -562,38 +568,300 @@
         <v>5.0</v>
       </c>
       <c r="B14" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C14" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="7">
+      <c r="E14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B15" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E14" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="8">
+      <c r="C15" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="E15" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s" s="8">
+      <c r="B16" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B23" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -602,7 +870,10 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
